--- a/biology/Zoologie/Cepaea_sylvatica/Cepaea_sylvatica.xlsx
+++ b/biology/Zoologie/Cepaea_sylvatica/Cepaea_sylvatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cepaea sylvatica, l'escargot des forêts, est une espèce de mollusques gastéropodes de la famille des hélicidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille de cette espèce mesure 12 à 16 mm de hauteur et 18 à 25 mm (rarement jusqu'à 28) de diamètre. Elle est globuleuse, légèrement déprimée et constituée de 5 à 6 tours convexes.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet escargot vit dans les milieux humides et les forêts montagnardes entre 500 et 2 400 m d'altitude.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut rencontrer l'escargot des forêts dans les Alpes et le Jura en France et en Suisse. Il est également présent dans la haute vallée du Rhin jusqu'à Karlsruhe et Worms. Il a été introduit dans les jardins de Landsberg (vallée de Lech).
 </t>
@@ -604,7 +622,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Kerney M.P. &amp; Cameron R.A.D. (1979) A Field Guide to the Land Snails of Britain and North-west Europe. Collins, London, 288 p.
 Sur les autres projets Wikimedia :
